--- a/Excel-XLSX/UN-IND.xlsx
+++ b/Excel-XLSX/UN-IND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1206">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>pzYT84</t>
+    <t>TbUyp7</t>
   </si>
   <si>
     <t>1964</t>
@@ -3510,10 +3510,10 @@
     <t>2024</t>
   </si>
   <si>
-    <t>9427</t>
-  </si>
-  <si>
-    <t>1362</t>
+    <t>8671</t>
+  </si>
+  <si>
+    <t>1093</t>
   </si>
   <si>
     <t>725</t>
@@ -3525,6 +3525,9 @@
     <t>727</t>
   </si>
   <si>
+    <t>63169</t>
+  </si>
+  <si>
     <t>728</t>
   </si>
   <si>
@@ -3558,30 +3561,33 @@
     <t>740</t>
   </si>
   <si>
+    <t>90365</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
     <t>741</t>
   </si>
   <si>
     <t>742</t>
   </si>
   <si>
+    <t>72826</t>
+  </si>
+  <si>
+    <t>8856</t>
+  </si>
+  <si>
     <t>743</t>
   </si>
   <si>
-    <t>90734</t>
-  </si>
-  <si>
     <t>744</t>
   </si>
   <si>
     <t>745</t>
   </si>
   <si>
-    <t>82225</t>
-  </si>
-  <si>
-    <t>8311</t>
-  </si>
-  <si>
     <t>746</t>
   </si>
   <si>
@@ -3594,24 +3600,24 @@
     <t>750</t>
   </si>
   <si>
+    <t>23262</t>
+  </si>
+  <si>
     <t>751</t>
   </si>
   <si>
+    <t>1265</t>
+  </si>
+  <si>
     <t>752</t>
   </si>
   <si>
     <t>753</t>
   </si>
   <si>
-    <t>22516</t>
-  </si>
-  <si>
     <t>754</t>
   </si>
   <si>
-    <t>916</t>
-  </si>
-  <si>
     <t>755</t>
   </si>
   <si>
@@ -3628,18 +3634,6 @@
   </si>
   <si>
     <t>760</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>764</t>
   </si>
 </sst>
 </file>
@@ -4024,7 +4018,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V765"/>
+  <dimension ref="A1:V761"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -53311,7 +53305,7 @@
         <v>1165</v>
       </c>
       <c r="P725" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="Q725" s="2" t="s">
         <v>32</v>
@@ -53417,16 +53411,16 @@
         <v>1163</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G727" s="1" t="s">
-        <v>773</v>
+        <v>171</v>
       </c>
       <c r="H727" s="1" t="s">
-        <v>774</v>
+        <v>172</v>
       </c>
       <c r="I727" s="1" t="s">
-        <v>774</v>
+        <v>172</v>
       </c>
       <c r="J727" s="2" t="s">
         <v>28</v>
@@ -53441,10 +53435,10 @@
         <v>30</v>
       </c>
       <c r="N727" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O727" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P727" s="2" t="s">
         <v>32</v>
@@ -53485,16 +53479,16 @@
         <v>1163</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="G728" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H728" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I728" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J728" s="2" t="s">
         <v>28</v>
@@ -53509,7 +53503,7 @@
         <v>30</v>
       </c>
       <c r="N728" s="2" t="s">
-        <v>54</v>
+        <v>1169</v>
       </c>
       <c r="O728" s="2" t="s">
         <v>32</v>
@@ -53547,22 +53541,22 @@
         <v>22</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G729" s="1" t="s">
-        <v>1119</v>
+        <v>634</v>
       </c>
       <c r="H729" s="1" t="s">
-        <v>1120</v>
+        <v>635</v>
       </c>
       <c r="I729" s="1" t="s">
-        <v>1121</v>
+        <v>635</v>
       </c>
       <c r="J729" s="2" t="s">
         <v>28</v>
@@ -53577,10 +53571,10 @@
         <v>30</v>
       </c>
       <c r="N729" s="2" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="O729" s="2" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="P729" s="2" t="s">
         <v>32</v>
@@ -53621,16 +53615,16 @@
         <v>1163</v>
       </c>
       <c r="F730" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G730" s="1" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="H730" s="1" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="I730" s="1" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="J730" s="2" t="s">
         <v>28</v>
@@ -53645,10 +53639,10 @@
         <v>30</v>
       </c>
       <c r="N730" s="2" t="s">
-        <v>1123</v>
+        <v>32</v>
       </c>
       <c r="O730" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="P730" s="2" t="s">
         <v>32</v>
@@ -53683,22 +53677,22 @@
         <v>22</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F731" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G731" s="1" t="s">
-        <v>634</v>
+        <v>491</v>
       </c>
       <c r="H731" s="1" t="s">
-        <v>635</v>
+        <v>492</v>
       </c>
       <c r="I731" s="1" t="s">
-        <v>635</v>
+        <v>492</v>
       </c>
       <c r="J731" s="2" t="s">
         <v>28</v>
@@ -53716,7 +53710,7 @@
         <v>258</v>
       </c>
       <c r="O731" s="2" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="P731" s="2" t="s">
         <v>32</v>
@@ -53751,22 +53745,22 @@
         <v>22</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F732" s="2" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="G732" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H732" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I732" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J732" s="2" t="s">
         <v>28</v>
@@ -53781,10 +53775,10 @@
         <v>30</v>
       </c>
       <c r="N732" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O732" s="2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="P732" s="2" t="s">
         <v>32</v>
@@ -53819,22 +53813,22 @@
         <v>22</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F733" s="2" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="G733" s="1" t="s">
-        <v>491</v>
+        <v>181</v>
       </c>
       <c r="H733" s="1" t="s">
-        <v>492</v>
+        <v>182</v>
       </c>
       <c r="I733" s="1" t="s">
-        <v>492</v>
+        <v>182</v>
       </c>
       <c r="J733" s="2" t="s">
         <v>28</v>
@@ -53849,10 +53843,10 @@
         <v>30</v>
       </c>
       <c r="N733" s="2" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="O733" s="2" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="P733" s="2" t="s">
         <v>32</v>
@@ -53887,22 +53881,22 @@
         <v>22</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="G734" s="1" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="H734" s="1" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="I734" s="1" t="s">
-        <v>417</v>
+        <v>498</v>
       </c>
       <c r="J734" s="2" t="s">
         <v>28</v>
@@ -53917,10 +53911,10 @@
         <v>30</v>
       </c>
       <c r="N734" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="O734" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P734" s="2" t="s">
         <v>32</v>
@@ -53955,22 +53949,22 @@
         <v>22</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F735" s="2" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="G735" s="1" t="s">
-        <v>181</v>
+        <v>906</v>
       </c>
       <c r="H735" s="1" t="s">
-        <v>182</v>
+        <v>907</v>
       </c>
       <c r="I735" s="1" t="s">
-        <v>182</v>
+        <v>907</v>
       </c>
       <c r="J735" s="2" t="s">
         <v>28</v>
@@ -53985,10 +53979,10 @@
         <v>30</v>
       </c>
       <c r="N735" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="O735" s="2" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="P735" s="2" t="s">
         <v>32</v>
@@ -54023,22 +54017,22 @@
         <v>22</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G736" s="1" t="s">
-        <v>496</v>
+        <v>607</v>
       </c>
       <c r="H736" s="1" t="s">
-        <v>497</v>
+        <v>608</v>
       </c>
       <c r="I736" s="1" t="s">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="J736" s="2" t="s">
         <v>28</v>
@@ -54053,10 +54047,10 @@
         <v>30</v>
       </c>
       <c r="N736" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="O736" s="2" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="P736" s="2" t="s">
         <v>32</v>
@@ -54091,22 +54085,22 @@
         <v>22</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F737" s="2" t="s">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="G737" s="1" t="s">
-        <v>906</v>
+        <v>70</v>
       </c>
       <c r="H737" s="1" t="s">
-        <v>907</v>
+        <v>71</v>
       </c>
       <c r="I737" s="1" t="s">
-        <v>907</v>
+        <v>71</v>
       </c>
       <c r="J737" s="2" t="s">
         <v>28</v>
@@ -54121,10 +54115,10 @@
         <v>30</v>
       </c>
       <c r="N737" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="O737" s="2" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="P737" s="2" t="s">
         <v>32</v>
@@ -54159,22 +54153,22 @@
         <v>22</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E738" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="G738" s="1" t="s">
-        <v>973</v>
+        <v>210</v>
       </c>
       <c r="H738" s="1" t="s">
-        <v>974</v>
+        <v>211</v>
       </c>
       <c r="I738" s="1" t="s">
-        <v>975</v>
+        <v>211</v>
       </c>
       <c r="J738" s="2" t="s">
         <v>28</v>
@@ -54189,10 +54183,10 @@
         <v>30</v>
       </c>
       <c r="N738" s="2" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="O738" s="2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="P738" s="2" t="s">
         <v>32</v>
@@ -54227,22 +54221,22 @@
         <v>22</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F739" s="2" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G739" s="1" t="s">
-        <v>607</v>
+        <v>915</v>
       </c>
       <c r="H739" s="1" t="s">
-        <v>608</v>
+        <v>916</v>
       </c>
       <c r="I739" s="1" t="s">
-        <v>609</v>
+        <v>916</v>
       </c>
       <c r="J739" s="2" t="s">
         <v>28</v>
@@ -54260,7 +54254,7 @@
         <v>32</v>
       </c>
       <c r="O739" s="2" t="s">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="P739" s="2" t="s">
         <v>32</v>
@@ -54301,16 +54295,16 @@
         <v>1163</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="G740" s="1" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="H740" s="1" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="I740" s="1" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="J740" s="2" t="s">
         <v>28</v>
@@ -54325,10 +54319,10 @@
         <v>30</v>
       </c>
       <c r="N740" s="2" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="O740" s="2" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="P740" s="2" t="s">
         <v>32</v>
@@ -54363,22 +54357,22 @@
         <v>22</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E741" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="G741" s="1" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="H741" s="1" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="I741" s="1" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="J741" s="2" t="s">
         <v>28</v>
@@ -54393,13 +54387,13 @@
         <v>30</v>
       </c>
       <c r="N741" s="2" t="s">
-        <v>152</v>
+        <v>1181</v>
       </c>
       <c r="O741" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="P741" s="2" t="s">
-        <v>32</v>
+        <v>1182</v>
       </c>
       <c r="Q741" s="2" t="s">
         <v>32</v>
@@ -54431,22 +54425,22 @@
         <v>22</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G742" s="1" t="s">
-        <v>915</v>
+        <v>669</v>
       </c>
       <c r="H742" s="1" t="s">
-        <v>916</v>
+        <v>670</v>
       </c>
       <c r="I742" s="1" t="s">
-        <v>916</v>
+        <v>670</v>
       </c>
       <c r="J742" s="2" t="s">
         <v>28</v>
@@ -54461,10 +54455,10 @@
         <v>30</v>
       </c>
       <c r="N742" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O742" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="P742" s="2" t="s">
         <v>32</v>
@@ -54499,22 +54493,22 @@
         <v>22</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="G743" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="H743" s="1" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="I743" s="1" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="J743" s="2" t="s">
         <v>28</v>
@@ -54529,10 +54523,10 @@
         <v>30</v>
       </c>
       <c r="N743" s="2" t="s">
-        <v>32</v>
+        <v>1185</v>
       </c>
       <c r="O743" s="2" t="s">
-        <v>45</v>
+        <v>1186</v>
       </c>
       <c r="P743" s="2" t="s">
         <v>32</v>
@@ -54567,22 +54561,22 @@
         <v>22</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F744" s="2" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
       <c r="G744" s="1" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="H744" s="1" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>154</v>
+        <v>529</v>
       </c>
       <c r="J744" s="2" t="s">
         <v>28</v>
@@ -54597,13 +54591,13 @@
         <v>30</v>
       </c>
       <c r="N744" s="2" t="s">
-        <v>1183</v>
+        <v>32</v>
       </c>
       <c r="O744" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="P744" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="Q744" s="2" t="s">
         <v>32</v>
@@ -54635,22 +54629,22 @@
         <v>22</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="G745" s="1" t="s">
-        <v>669</v>
+        <v>401</v>
       </c>
       <c r="H745" s="1" t="s">
-        <v>670</v>
+        <v>402</v>
       </c>
       <c r="I745" s="1" t="s">
-        <v>670</v>
+        <v>402</v>
       </c>
       <c r="J745" s="2" t="s">
         <v>28</v>
@@ -54665,10 +54659,10 @@
         <v>30</v>
       </c>
       <c r="N745" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O745" s="2" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="P745" s="2" t="s">
         <v>32</v>
@@ -54703,22 +54697,22 @@
         <v>22</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="G746" s="1" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="H746" s="1" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="J746" s="2" t="s">
         <v>28</v>
@@ -54733,10 +54727,10 @@
         <v>30</v>
       </c>
       <c r="N746" s="2" t="s">
-        <v>1186</v>
+        <v>42</v>
       </c>
       <c r="O746" s="2" t="s">
-        <v>1187</v>
+        <v>32</v>
       </c>
       <c r="P746" s="2" t="s">
         <v>32</v>
@@ -54771,22 +54765,22 @@
         <v>22</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="G747" s="1" t="s">
-        <v>527</v>
+        <v>928</v>
       </c>
       <c r="H747" s="1" t="s">
-        <v>528</v>
+        <v>929</v>
       </c>
       <c r="I747" s="1" t="s">
-        <v>529</v>
+        <v>929</v>
       </c>
       <c r="J747" s="2" t="s">
         <v>28</v>
@@ -54804,7 +54798,7 @@
         <v>32</v>
       </c>
       <c r="O747" s="2" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="P747" s="2" t="s">
         <v>32</v>
@@ -54845,16 +54839,16 @@
         <v>1163</v>
       </c>
       <c r="F748" s="2" t="s">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="G748" s="1" t="s">
-        <v>401</v>
+        <v>992</v>
       </c>
       <c r="H748" s="1" t="s">
-        <v>402</v>
+        <v>993</v>
       </c>
       <c r="I748" s="1" t="s">
-        <v>402</v>
+        <v>993</v>
       </c>
       <c r="J748" s="2" t="s">
         <v>28</v>
@@ -54872,7 +54866,7 @@
         <v>32</v>
       </c>
       <c r="O748" s="2" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="P748" s="2" t="s">
         <v>32</v>
@@ -54907,22 +54901,22 @@
         <v>22</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E749" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F749" s="2" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="G749" s="1" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="H749" s="1" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="I749" s="1" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="J749" s="2" t="s">
         <v>28</v>
@@ -54937,13 +54931,13 @@
         <v>30</v>
       </c>
       <c r="N749" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="O749" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P749" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="O749" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P749" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="Q749" s="2" t="s">
         <v>32</v>
@@ -54975,22 +54969,22 @@
         <v>22</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="G750" s="1" t="s">
-        <v>928</v>
+        <v>802</v>
       </c>
       <c r="H750" s="1" t="s">
-        <v>929</v>
+        <v>803</v>
       </c>
       <c r="I750" s="1" t="s">
-        <v>929</v>
+        <v>803</v>
       </c>
       <c r="J750" s="2" t="s">
         <v>28</v>
@@ -55005,10 +54999,10 @@
         <v>30</v>
       </c>
       <c r="N750" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O750" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="P750" s="2" t="s">
         <v>32</v>
@@ -55043,22 +55037,22 @@
         <v>22</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E751" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>227</v>
+        <v>449</v>
       </c>
       <c r="G751" s="1" t="s">
-        <v>992</v>
+        <v>933</v>
       </c>
       <c r="H751" s="1" t="s">
-        <v>993</v>
+        <v>934</v>
       </c>
       <c r="I751" s="1" t="s">
-        <v>993</v>
+        <v>935</v>
       </c>
       <c r="J751" s="2" t="s">
         <v>28</v>
@@ -55076,7 +55070,7 @@
         <v>32</v>
       </c>
       <c r="O751" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P751" s="2" t="s">
         <v>32</v>
@@ -55088,7 +55082,7 @@
         <v>32</v>
       </c>
       <c r="S751" s="2" t="s">
-        <v>32</v>
+        <v>1194</v>
       </c>
       <c r="T751" s="2" t="s">
         <v>32</v>
@@ -55111,22 +55105,22 @@
         <v>22</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="G752" s="1" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="H752" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="I752" s="1" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="J752" s="2" t="s">
         <v>28</v>
@@ -55141,10 +55135,10 @@
         <v>30</v>
       </c>
       <c r="N752" s="2" t="s">
-        <v>863</v>
+        <v>428</v>
       </c>
       <c r="O752" s="2" t="s">
-        <v>804</v>
+        <v>1196</v>
       </c>
       <c r="P752" s="2" t="s">
         <v>32</v>
@@ -55179,22 +55173,22 @@
         <v>22</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="E753" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G753" s="1" t="s">
-        <v>802</v>
+        <v>510</v>
       </c>
       <c r="H753" s="1" t="s">
-        <v>803</v>
+        <v>511</v>
       </c>
       <c r="I753" s="1" t="s">
-        <v>803</v>
+        <v>511</v>
       </c>
       <c r="J753" s="2" t="s">
         <v>28</v>
@@ -55209,10 +55203,10 @@
         <v>30</v>
       </c>
       <c r="N753" s="2" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="O753" s="2" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="P753" s="2" t="s">
         <v>32</v>
@@ -55247,22 +55241,22 @@
         <v>22</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="E754" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="G754" s="1" t="s">
-        <v>933</v>
+        <v>880</v>
       </c>
       <c r="H754" s="1" t="s">
-        <v>934</v>
+        <v>881</v>
       </c>
       <c r="I754" s="1" t="s">
-        <v>935</v>
+        <v>882</v>
       </c>
       <c r="J754" s="2" t="s">
         <v>28</v>
@@ -55280,7 +55274,7 @@
         <v>32</v>
       </c>
       <c r="O754" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P754" s="2" t="s">
         <v>32</v>
@@ -55292,7 +55286,7 @@
         <v>32</v>
       </c>
       <c r="S754" s="2" t="s">
-        <v>1195</v>
+        <v>32</v>
       </c>
       <c r="T754" s="2" t="s">
         <v>32</v>
@@ -55315,22 +55309,22 @@
         <v>22</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="E755" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>240</v>
+        <v>407</v>
       </c>
       <c r="G755" s="1" t="s">
-        <v>241</v>
+        <v>573</v>
       </c>
       <c r="H755" s="1" t="s">
-        <v>242</v>
+        <v>574</v>
       </c>
       <c r="I755" s="1" t="s">
-        <v>243</v>
+        <v>574</v>
       </c>
       <c r="J755" s="2" t="s">
         <v>28</v>
@@ -55345,10 +55339,10 @@
         <v>30</v>
       </c>
       <c r="N755" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O755" s="2" t="s">
-        <v>1197</v>
+        <v>32</v>
       </c>
       <c r="P755" s="2" t="s">
         <v>32</v>
@@ -55383,22 +55377,22 @@
         <v>22</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="E756" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>403</v>
+        <v>164</v>
       </c>
       <c r="G756" s="1" t="s">
-        <v>510</v>
+        <v>943</v>
       </c>
       <c r="H756" s="1" t="s">
-        <v>511</v>
+        <v>944</v>
       </c>
       <c r="I756" s="1" t="s">
-        <v>511</v>
+        <v>944</v>
       </c>
       <c r="J756" s="2" t="s">
         <v>28</v>
@@ -55413,10 +55407,10 @@
         <v>30</v>
       </c>
       <c r="N756" s="2" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="O756" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="P756" s="2" t="s">
         <v>32</v>
@@ -55451,22 +55445,22 @@
         <v>22</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="E757" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F757" s="2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="G757" s="1" t="s">
-        <v>880</v>
+        <v>946</v>
       </c>
       <c r="H757" s="1" t="s">
-        <v>881</v>
+        <v>947</v>
       </c>
       <c r="I757" s="1" t="s">
-        <v>882</v>
+        <v>947</v>
       </c>
       <c r="J757" s="2" t="s">
         <v>28</v>
@@ -55481,10 +55475,10 @@
         <v>30</v>
       </c>
       <c r="N757" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O757" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P757" s="2" t="s">
         <v>32</v>
@@ -55519,22 +55513,22 @@
         <v>22</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="G758" s="1" t="s">
-        <v>573</v>
+        <v>721</v>
       </c>
       <c r="H758" s="1" t="s">
-        <v>574</v>
+        <v>722</v>
       </c>
       <c r="I758" s="1" t="s">
-        <v>574</v>
+        <v>722</v>
       </c>
       <c r="J758" s="2" t="s">
         <v>28</v>
@@ -55552,7 +55546,7 @@
         <v>42</v>
       </c>
       <c r="O758" s="2" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="P758" s="2" t="s">
         <v>32</v>
@@ -55587,22 +55581,22 @@
         <v>22</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>164</v>
+        <v>428</v>
       </c>
       <c r="G759" s="1" t="s">
-        <v>943</v>
+        <v>724</v>
       </c>
       <c r="H759" s="1" t="s">
-        <v>944</v>
+        <v>725</v>
       </c>
       <c r="I759" s="1" t="s">
-        <v>944</v>
+        <v>725</v>
       </c>
       <c r="J759" s="2" t="s">
         <v>28</v>
@@ -55620,7 +55614,7 @@
         <v>32</v>
       </c>
       <c r="O759" s="2" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="P759" s="2" t="s">
         <v>32</v>
@@ -55655,22 +55649,22 @@
         <v>22</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="G760" s="1" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="H760" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="I760" s="1" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="J760" s="2" t="s">
         <v>28</v>
@@ -55688,7 +55682,7 @@
         <v>42</v>
       </c>
       <c r="O760" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P760" s="2" t="s">
         <v>32</v>
@@ -55723,22 +55717,22 @@
         <v>22</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G761" s="1" t="s">
-        <v>721</v>
+        <v>627</v>
       </c>
       <c r="H761" s="1" t="s">
-        <v>722</v>
+        <v>628</v>
       </c>
       <c r="I761" s="1" t="s">
-        <v>722</v>
+        <v>628</v>
       </c>
       <c r="J761" s="2" t="s">
         <v>28</v>
@@ -55753,14 +55747,14 @@
         <v>30</v>
       </c>
       <c r="N761" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="O761" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="P761" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O761" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="P761" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q761" s="2" t="s">
         <v>32</v>
       </c>
@@ -55777,278 +55771,6 @@
         <v>33</v>
       </c>
       <c r="V761" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C762" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D762" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E762" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F762" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G762" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H762" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="I762" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="J762" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K762" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L762" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M762" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N762" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O762" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="P762" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q762" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R762" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S762" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T762" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U762" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V762" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C763" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D763" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E763" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F763" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G763" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H763" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="I763" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J763" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K763" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L763" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M763" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N763" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O763" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P763" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q763" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R763" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S763" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T763" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U763" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V763" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C764" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D764" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E764" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F764" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G764" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H764" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="I764" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="J764" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K764" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L764" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M764" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N764" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O764" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P764" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q764" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R764" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S764" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T764" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U764" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V764" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C765" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D765" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E765" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F765" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G765" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H765" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I765" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="J765" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K765" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L765" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M765" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N765" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O765" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P765" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q765" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R765" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S765" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T765" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U765" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V765" s="2" t="s">
         <v>32</v>
       </c>
     </row>
